--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumCucumberFramwork\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F471EDD-C153-4C78-92BD-F17B2F5D86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A885751-9FBC-4573-AB4A-2C58A015123A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A0C85635-3A2C-43FD-9792-DA4A6C404145}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A0C85635-3A2C-43FD-9792-DA4A6C404145}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="shipping" sheetId="2" r:id="rId2"/>
-    <sheet name="order" sheetId="3" r:id="rId3"/>
+    <sheet name="product" sheetId="4" r:id="rId2"/>
+    <sheet name="shipping" sheetId="2" r:id="rId3"/>
+    <sheet name="order" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Key</t>
   </si>
@@ -112,10 +113,34 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>000024178</t>
-  </si>
-  <si>
     <t>000024184</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>productColor</t>
+  </si>
+  <si>
+    <t>productQuantity</t>
+  </si>
+  <si>
+    <t>Adrienne Trek Jacket</t>
+  </si>
+  <si>
+    <t>productSize</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>000024543</t>
   </si>
 </sst>
 </file>
@@ -123,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +163,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,10 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,17 +516,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F81771-848E-4471-903B-F8D91597DD05}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="20.44140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -516,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -534,6 +568,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8E0224-6BD8-4CAC-82B1-0BBE4734EA1B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="33.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="17.109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C065863-0753-496F-8DA9-A64E49C2C632}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -541,9 +635,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -559,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -567,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -575,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -583,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -599,7 +693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -607,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -621,17 +715,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40285A3-EDF1-4731-9B45-59D713397CDB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
